--- a/tools/LanguageJS/Language.xlsx
+++ b/tools/LanguageJS/Language.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>多语言字符串</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>中文繁体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JINDU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading resources %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在很努力的加載資源%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JINDUWANCHENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源加载成功，正在进入游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在很努力的加载资源%s%...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,7 +745,26 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tools/LanguageJS/Language.xlsx
+++ b/tools/LanguageJS/Language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\TouchMe\tools\LanguageJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PoecketPet\tools\LanguageJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,11 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="147">
   <si>
     <t>多语言字符串</t>
   </si>
@@ -38,102 +39,171 @@
     <t>Chinese</t>
   </si>
   <si>
-    <t>CHINESE</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>ENGLISH</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>MUSIC</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>音乐繁体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChineseChara</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GOTOSUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passengers have been served</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功送达乘客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功送达乘客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEEK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOPRECORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Highest record:</t>
-  </si>
-  <si>
-    <t>最高分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高分（繁体）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUND</t>
+    <t>JINDU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading resources %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在很努力的加載資源%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在很努力的加载资源%s%...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JINDUWANCHENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNTTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORDTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TISHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的账号或密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賬號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入正確的賬號或密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter an account or password</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>Account has already existed</t>
+  </si>
+  <si>
+    <t>账号已经存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賬號已經存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資源接在成功，正在進入游戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源加载成功，正在进入游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The resources are loaded successfully and are entering the game</t>
+  </si>
+  <si>
+    <t>SERVERERROR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,64 +219,440 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ound</t>
+      <t>erver Error</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHINESECHARA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChineseChara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文繁体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文繁体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JINDU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading resources %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在很努力的加載資源%s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JINDUWANCHENG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源加载成功，正在进入游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在很努力的加载资源%s%...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>服务器错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務器錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次输入的密码不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩次輸入的密碼不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two different passwords</t>
+  </si>
+  <si>
+    <t>PASSWORDDIFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password error</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNTEXITS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNTERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORDERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network data loading……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在连接网络，请稍后···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在連接網絡，請稍後···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NETLOADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETPET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations, get a pet, go and have a look</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，获得萌宠%s，快去看看吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，獲得萌寵，快去看看吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回大廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURNMAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage box</t>
+  </si>
+  <si>
+    <t>储物箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲物箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PETLIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et list</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌宠列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌寵列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在重新連接服務器，請稍後······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在重新连接服务器，请稍后······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NETCLOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reconnecting the server, please later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combat value</t>
+  </si>
+  <si>
+    <t>BATTLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得的時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTELLIGENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聰明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUCKY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸運</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EATGRESSBEAST</t>
+  </si>
+  <si>
+    <t>Herbivore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食草兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食草獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIDUOLANEN</t>
+  </si>
+  <si>
+    <t>FEIOUNA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAKELAIYI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AERZHOUSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILAJIWENG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BILIJI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHOULEI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAKEMU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAIOU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>席多蓝恩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>霏欧纳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>达克莱伊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔宙斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾帕路翁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代拉基翁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕力吉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酋雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚克姆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖欧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>席多蓝恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEESKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GOUPALU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WENG</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOUPALUWENG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +669,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -251,13 +704,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,10 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,169 +1057,581 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/tools/LanguageJS/Language.xlsx
+++ b/tools/LanguageJS/Language.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29490" windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>多语言字符串</t>
   </si>
@@ -39,27 +39,9 @@
   </si>
   <si>
     <t>ChineseChara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JINDU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading resources %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在很努力的加載資源%s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在很努力的加载资源%s%...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -75,14 +57,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -115,11 +98,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -424,11 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E88" sqref="A4:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,18 +464,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -548,6 +520,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
@@ -559,6 +532,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
@@ -569,18 +543,17 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
@@ -608,49 +581,390 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -662,7 +976,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -676,7 +990,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
